--- a/static/pusgrade.xlsx
+++ b/static/pusgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Score_management_system\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9641FB-6C7E-4791-BAC1-498F79323C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FA25DF-4B08-4C42-9062-6B6A2D415669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strftime('%Y-%m-%d %H:%M:%S')请以这个格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请在表格中填入信息</t>
   </si>
   <si>
@@ -87,6 +83,22 @@
   </si>
   <si>
     <t>加分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%Y-%m-%d %H:%M:%S这个格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例子如下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-23 12:23:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传时务必把这列改成文本形式！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,8 +206,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -205,10 +223,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" activeCellId="1" sqref="H2 F6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.0703125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -509,128 +527,458 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F105" s="7"/>
+    </row>
+    <row r="106" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F106" s="7"/>
+    </row>
+    <row r="107" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F107" s="7"/>
+    </row>
+    <row r="108" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F108" s="7"/>
+    </row>
+    <row r="109" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F110" s="7"/>
+    </row>
+    <row r="111" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F112" s="7"/>
+    </row>
+    <row r="113" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F113" s="7"/>
+    </row>
+    <row r="114" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F114" s="7"/>
+    </row>
+    <row r="115" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F115" s="7"/>
+    </row>
+    <row r="116" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F116" s="7"/>
+    </row>
+    <row r="117" spans="6:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F117" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
